--- a/KartikDeo/TestApplication/TestApplication/DetailFormatInExcel/Uploadexcel.xlsx
+++ b/KartikDeo/TestApplication/TestApplication/DetailFormatInExcel/Uploadexcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sr.No</t>
   </si>
@@ -53,28 +53,10 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>27AAAAA0000A1Z5</t>
-  </si>
-  <si>
-    <t>gst@gmail.com</t>
-  </si>
-  <si>
-    <t>xyzs</t>
-  </si>
-  <si>
-    <t>xyzsq</t>
-  </si>
-  <si>
-    <t>27AAAAA0000Ap5</t>
-  </si>
-  <si>
-    <t>xyzsqa</t>
-  </si>
-  <si>
-    <t>xyzsqaq</t>
-  </si>
-  <si>
     <t>06AAECB9200C2Z8</t>
+  </si>
+  <si>
+    <t>gst@gmail</t>
   </si>
 </sst>
 </file>
@@ -404,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,201 +452,12 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>9090909090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43922</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F3">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>9090909090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43922</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F4">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>9090909090</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43922</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F5">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>9090909090</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43922</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43891</v>
-      </c>
-      <c r="F6">
-        <v>123452</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>9190909090</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43891</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43922</v>
-      </c>
-      <c r="F7">
-        <v>123458</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>9290929090</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43891</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43922</v>
-      </c>
-      <c r="F8">
-        <v>123458</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>9190929090</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43891</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43922</v>
-      </c>
-      <c r="F9">
-        <v>123458</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>9021177772</v>
+        <v>98286894</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
